--- a/Production/BAS-DevKIT-0.4/P234_0.4_BAS_DevKIT_BOM.xlsx
+++ b/Production/BAS-DevKIT-0.4/P234_0.4_BAS_DevKIT_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GreenfieldTechSolutions\Projects\Ontwerpen\Project_234_BAS\RenderedFiles\BAS_DevKIT_0.4\P234_0.4_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2DD460D-A95E-4247-B7AA-0ED284B13D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18443D3C-CB4C-4194-99EE-9E3D5FE632C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="361">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -107,7 +107,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>22/02/14</t>
+    <t>22/02/16</t>
   </si>
   <si>
     <t>Part Number</t>
@@ -326,6 +326,9 @@
     <t>RS0037</t>
   </si>
   <si>
+    <t>RS0038</t>
+  </si>
+  <si>
     <t>SW0001</t>
   </si>
   <si>
@@ -539,7 +542,7 @@
     <t>R205, R206</t>
   </si>
   <si>
-    <t>R209, R210, R510</t>
+    <t>R510</t>
   </si>
   <si>
     <t>R106</t>
@@ -551,6 +554,9 @@
     <t>R511</t>
   </si>
   <si>
+    <t>R209, R210</t>
+  </si>
+  <si>
     <t>SW501, SW502</t>
   </si>
   <si>
@@ -734,7 +740,7 @@
     <t>RPI ZeroW Mounting Studs</t>
   </si>
   <si>
-    <t>RPI ZeroW Pin 1-40</t>
+    <t>RPI ZeroW Header 1-40</t>
   </si>
   <si>
     <t>150Ω 1% 100mW</t>
@@ -776,6 +782,9 @@
     <t>1KΩ 5% 62.5mW 100PPM</t>
   </si>
   <si>
+    <t>5.1KΩ 1% 62.5mW 100PPM</t>
+  </si>
+  <si>
     <t>Miniature Slide Switch</t>
   </si>
   <si>
@@ -960,6 +969,9 @@
   </si>
   <si>
     <t>RC0402JR-131KL</t>
+  </si>
+  <si>
+    <t>CRCW04025K10FKEDC</t>
   </si>
   <si>
     <t>OS102011MS2QN1</t>
@@ -1893,7 +1905,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K95"/>
+  <dimension ref="B1:K96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -2103,7 +2115,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="34" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>18</v>
@@ -2121,21 +2133,21 @@
         <v>26</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
       <c r="G13" s="35" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J13" s="21">
         <v>12</v>
@@ -2147,21 +2159,21 @@
         <v>27</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
@@ -2173,21 +2185,21 @@
         <v>28</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
       <c r="G15" s="35" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J15" s="21">
         <v>19</v>
@@ -2199,21 +2211,21 @@
         <v>29</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
       <c r="G16" s="35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J16" s="21">
         <v>6</v>
@@ -2225,21 +2237,21 @@
         <v>30</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
       <c r="G17" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J17" s="21">
         <v>1</v>
@@ -2251,21 +2263,21 @@
         <v>31</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
       <c r="G18" s="35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J18" s="21">
         <v>3</v>
@@ -2277,21 +2289,21 @@
         <v>32</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
       <c r="G19" s="35" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J19" s="21">
         <v>4</v>
@@ -2303,21 +2315,21 @@
         <v>33</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
       <c r="G20" s="35" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J20" s="21">
         <v>2</v>
@@ -2329,21 +2341,21 @@
         <v>34</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
       <c r="G21" s="35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J21" s="21">
         <v>1</v>
@@ -2355,21 +2367,21 @@
         <v>35</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
       <c r="G22" s="35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J22" s="21">
         <v>5</v>
@@ -2381,21 +2393,21 @@
         <v>36</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
       <c r="G23" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J23" s="21">
         <v>1</v>
@@ -2407,21 +2419,21 @@
         <v>37</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
       <c r="G24" s="35" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J24" s="21">
         <v>4</v>
@@ -2433,21 +2445,21 @@
         <v>38</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
       <c r="G25" s="35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J25" s="21">
         <v>2</v>
@@ -2459,21 +2471,21 @@
         <v>39</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
       <c r="G26" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J26" s="21">
         <v>2</v>
@@ -2485,21 +2497,21 @@
         <v>40</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
       <c r="G27" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J27" s="21">
         <v>4</v>
@@ -2511,21 +2523,21 @@
         <v>41</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
       <c r="G28" s="35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J28" s="21">
         <v>2</v>
@@ -2537,21 +2549,21 @@
         <v>42</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
       <c r="G29" s="35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J29" s="21">
         <v>1</v>
@@ -2563,21 +2575,21 @@
         <v>43</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
       <c r="G30" s="35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J30" s="21">
         <v>2</v>
@@ -2589,10 +2601,10 @@
         <v>44</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
@@ -2600,10 +2612,10 @@
         <v>10029449</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J31" s="21">
         <v>1</v>
@@ -2615,21 +2627,21 @@
         <v>45</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
       <c r="G32" s="35" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J32" s="21">
         <v>6</v>
@@ -2641,21 +2653,21 @@
         <v>46</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
       <c r="G33" s="35" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J33" s="21">
         <v>1</v>
@@ -2667,10 +2679,10 @@
         <v>47</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
@@ -2678,10 +2690,10 @@
         <v>457180002</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J34" s="21">
         <v>1</v>
@@ -2693,21 +2705,21 @@
         <v>48</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
       <c r="G35" s="35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J35" s="21">
         <v>3</v>
@@ -2719,21 +2731,21 @@
         <v>49</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="55"/>
       <c r="G36" s="35" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J36" s="21">
         <v>1</v>
@@ -2745,10 +2757,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="55"/>
@@ -2759,7 +2771,7 @@
         <v>693071030811</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J37" s="21">
         <v>1</v>
@@ -2771,21 +2783,21 @@
         <v>51</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="55"/>
       <c r="G38" s="35" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J38" s="21">
         <v>1</v>
@@ -2797,21 +2809,21 @@
         <v>52</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="55"/>
       <c r="G39" s="35" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J39" s="21">
         <v>6</v>
@@ -2823,21 +2835,21 @@
         <v>53</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="55"/>
       <c r="G40" s="35" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J40" s="21">
         <v>4</v>
@@ -2849,21 +2861,21 @@
         <v>54</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="55"/>
       <c r="G41" s="35" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J41" s="21">
         <v>3</v>
@@ -2875,21 +2887,21 @@
         <v>55</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="55"/>
       <c r="G42" s="35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J42" s="21">
         <v>1</v>
@@ -2901,21 +2913,21 @@
         <v>56</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55"/>
       <c r="G43" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J43" s="21">
         <v>1</v>
@@ -2927,21 +2939,21 @@
         <v>57</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="55"/>
       <c r="G44" s="35" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J44" s="21">
         <v>1</v>
@@ -2953,21 +2965,21 @@
         <v>58</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="55"/>
       <c r="G45" s="35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J45" s="21">
         <v>1</v>
@@ -2979,21 +2991,21 @@
         <v>59</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="55"/>
       <c r="G46" s="35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J46" s="21">
         <v>1</v>
@@ -3005,21 +3017,21 @@
         <v>60</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="55"/>
       <c r="G47" s="35" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J47" s="21">
         <v>1</v>
@@ -3031,21 +3043,21 @@
         <v>61</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="55"/>
       <c r="G48" s="35" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J48" s="21">
         <v>1</v>
@@ -3057,21 +3069,21 @@
         <v>62</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="55"/>
       <c r="G49" s="35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J49" s="21">
         <v>1</v>
@@ -3083,21 +3095,21 @@
         <v>63</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="55"/>
       <c r="G50" s="35" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J50" s="21">
         <v>1</v>
@@ -3109,21 +3121,21 @@
         <v>64</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="55"/>
       <c r="G51" s="35" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J51" s="21">
         <v>1</v>
@@ -3135,21 +3147,21 @@
         <v>65</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="55"/>
       <c r="G52" s="35" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J52" s="21">
         <v>1</v>
@@ -3161,21 +3173,21 @@
         <v>66</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="55"/>
       <c r="G53" s="35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J53" s="21">
         <v>1</v>
@@ -3187,21 +3199,21 @@
         <v>67</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="55"/>
       <c r="G54" s="35" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J54" s="21">
         <v>2</v>
@@ -3213,21 +3225,21 @@
         <v>68</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="55"/>
       <c r="G55" s="35" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J55" s="21">
         <v>1</v>
@@ -3239,21 +3251,21 @@
         <v>69</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="55"/>
       <c r="G56" s="35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J56" s="21">
         <v>1</v>
@@ -3265,21 +3277,21 @@
         <v>70</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="55"/>
       <c r="G57" s="35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J57" s="21">
         <v>1</v>
@@ -3291,21 +3303,21 @@
         <v>71</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="55"/>
       <c r="G58" s="35" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J58" s="21">
         <v>1</v>
@@ -3317,19 +3329,19 @@
         <v>72</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="55"/>
       <c r="G59" s="35"/>
       <c r="H59" s="31" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J59" s="21">
         <v>4</v>
@@ -3341,19 +3353,19 @@
         <v>73</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="55"/>
       <c r="G60" s="35"/>
       <c r="H60" s="31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J60" s="21">
         <v>1</v>
@@ -3365,19 +3377,19 @@
         <v>74</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="55"/>
       <c r="G61" s="35"/>
       <c r="H61" s="31" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J61" s="21">
         <v>1</v>
@@ -3389,19 +3401,19 @@
         <v>75</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="55"/>
       <c r="G62" s="35"/>
       <c r="H62" s="31" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J62" s="21">
         <v>4</v>
@@ -3413,19 +3425,19 @@
         <v>76</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="55"/>
       <c r="G63" s="35"/>
       <c r="H63" s="31" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J63" s="21">
         <v>4</v>
@@ -3437,21 +3449,21 @@
         <v>77</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="55"/>
       <c r="G64" s="35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J64" s="21">
         <v>1</v>
@@ -3463,21 +3475,21 @@
         <v>78</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="55"/>
       <c r="G65" s="35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J65" s="21">
         <v>1</v>
@@ -3489,21 +3501,21 @@
         <v>79</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="55"/>
       <c r="G66" s="35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H66" s="31" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J66" s="21">
         <v>1</v>
@@ -3515,21 +3527,21 @@
         <v>80</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="55"/>
       <c r="G67" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J67" s="21">
         <v>4</v>
@@ -3541,21 +3553,21 @@
         <v>81</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E68" s="54"/>
       <c r="F68" s="55"/>
       <c r="G68" s="35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J68" s="21">
         <v>1</v>
@@ -3567,21 +3579,21 @@
         <v>82</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="55"/>
       <c r="G69" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J69" s="21">
         <v>4</v>
@@ -3593,21 +3605,21 @@
         <v>83</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E70" s="54"/>
       <c r="F70" s="55"/>
       <c r="G70" s="35">
-        <v>61304021121</v>
+        <v>9900002236265</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J70" s="21">
         <v>1</v>
@@ -3619,21 +3631,21 @@
         <v>84</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="55"/>
       <c r="G71" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J71" s="21">
         <v>6</v>
@@ -3645,21 +3657,21 @@
         <v>85</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E72" s="54"/>
       <c r="F72" s="55"/>
       <c r="G72" s="35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J72" s="21">
         <v>4</v>
@@ -3671,21 +3683,21 @@
         <v>86</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E73" s="54"/>
       <c r="F73" s="55"/>
       <c r="G73" s="35" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J73" s="21">
         <v>10</v>
@@ -3697,21 +3709,21 @@
         <v>87</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="55"/>
       <c r="G74" s="35" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J74" s="21">
         <v>2</v>
@@ -3723,21 +3735,21 @@
         <v>88</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="55"/>
       <c r="G75" s="35" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J75" s="21">
         <v>1</v>
@@ -3749,21 +3761,21 @@
         <v>89</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="55"/>
       <c r="G76" s="35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J76" s="21">
         <v>2</v>
@@ -3775,21 +3787,21 @@
         <v>90</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="55"/>
       <c r="G77" s="35" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J77" s="21">
         <v>3</v>
@@ -3801,21 +3813,21 @@
         <v>91</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E78" s="54"/>
       <c r="F78" s="55"/>
       <c r="G78" s="35" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J78" s="21">
         <v>2</v>
@@ -3827,21 +3839,21 @@
         <v>92</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E79" s="54"/>
       <c r="F79" s="55"/>
       <c r="G79" s="35" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J79" s="21">
         <v>2</v>
@@ -3853,24 +3865,24 @@
         <v>93</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E80" s="54"/>
       <c r="F80" s="55"/>
       <c r="G80" s="35" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J80" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K80" s="6"/>
     </row>
@@ -3879,21 +3891,21 @@
         <v>94</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="55"/>
       <c r="G81" s="35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J81" s="21">
         <v>1</v>
@@ -3905,21 +3917,21 @@
         <v>95</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="55"/>
       <c r="G82" s="35" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J82" s="21">
         <v>1</v>
@@ -3931,21 +3943,21 @@
         <v>96</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="55"/>
       <c r="G83" s="35" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J83" s="21">
         <v>1</v>
@@ -3957,21 +3969,21 @@
         <v>97</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="55"/>
       <c r="G84" s="35" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J84" s="21">
         <v>2</v>
@@ -3983,21 +3995,21 @@
         <v>98</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="55"/>
       <c r="G85" s="35" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J85" s="21">
         <v>2</v>
@@ -4009,24 +4021,24 @@
         <v>99</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="55"/>
       <c r="G86" s="35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H86" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J86" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" s="6"/>
     </row>
@@ -4035,71 +4047,86 @@
         <v>100</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="55"/>
       <c r="G87" s="35" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J87" s="21">
         <v>1</v>
       </c>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="17"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="10">
-        <f>SUM(J13:J87)</f>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="54"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="J88" s="21">
+        <v>1</v>
+      </c>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="17"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="10">
+        <f>SUM(J13:J88)</f>
         <v>190</v>
       </c>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J89" s="12"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="39" t="s">
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="12"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="39" t="s">
+      <c r="C91" s="40"/>
+      <c r="D91" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="40"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="13"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="40"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
@@ -4134,22 +4161,34 @@
       <c r="I94" s="5"/>
       <c r="J94" s="13"/>
     </row>
-    <row r="95" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="7"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="14"/>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="7"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="89">
+  <mergeCells count="90">
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="D82:F82"/>
@@ -4205,7 +4244,7 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
@@ -4222,8 +4261,8 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:J91"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G2:H2"/>
